--- a/assets/disciplinas/LOB1224.xlsx
+++ b/assets/disciplinas/LOB1224.xlsx
@@ -139,7 +139,7 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOB1235 -  Impactos e Adeqüação Ambiental  (Requisito fraco)
+    <t xml:space="preserve">LOB1235 -  Avaliação de Impactos Ambientais  (Requisito fraco)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOB1224.xlsx
+++ b/assets/disciplinas/LOB1224.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Propiciar ao discente uma visão integrada do processo de planejamento com um enfoque ambiental aplicado no urbanismo; apresentar e discutir conceitos, projetos práticos e metodologias relacionadas às etapas e fases do planejamento ambiental e à gestão ambiental urbana; apresentar os instrumentos do planejamento, gestão e política ambiental urbana</t>
+    <t>9146830 - Danúbia Caporusso Bargos</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>9146830 - Danúbia Caporusso Bargos</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Elementos de teoria e história do planejamento urbano. Teoria e prática do planejamento ambiental; Planejamento ambiental como indutor de desenvolvimento sustentável; Aplicações da teoria do planejamento a problemas ambientais e urbanos; Legislação e política ambiental urbana.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Introdução ao planejamento e gestão ambiental. Origens da teoria e prática do planejamento. Natureza do planejamento e suas relações com a geografia, política, economia, sociedade, cultura e meio ambiente. Análises, estudos e proposições relativas às diversas formas de crescimento e expansão urbanas; Elementos para estruturação ambiental da cidade; Etapas, estruturas e instrumentos do planejamento ambiental; Indicadores ambientais e planejamento; Participação pública no planejamento ambiental; Política Nacional do Meio Ambiente (Lei n°6938/1981); Sistema Nacional de Unidades de Conservação (Lei n°9985/2000); Estatuto da Cidade (Lei n°10.257/2001); Zoneamento Ambiental; EIA e EIV como instrumentos inovadores; Novos conceitos e princípios de planos diretores urbano-ambientais;</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas teóricas e práticas, visitas técnicas e exercícios dirigidos. Avaliação baseada em provas, exercícios e trabalhos práticos e relatórios.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média ponderada das notas atribuídas às provas, exercícios e trabalhos práticos e relatórios.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Provas e/ou exercícios dirigidos.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>Bibliografia básica:AGRA FILHO, S,S. Planejamento e Gestão Ambiental no Brasil. Os Instrumentos da Política Nacional do Meio Ambiente, Rio de Janeiro, Elsevier, 2014FRANCO, M.A.R., Planejamento ambiental para a cidade sustentável, Ed. Annablume, 2000DEAK, C., SHIFFER, S.T.R., O processo de urbanização no Brasil, EDUSP, 1999IBGE, Instituto Brasileiro de Geografia e Estatística. Indicadores de Desenvolvimento Sustentável. Rio de Janeiro, IBGE, 2012.MOTA, S., Urbanização e meio ambiente, ABES Associação Brasileira de Engenharia Sanitária, 1999MENEZES, C.L., Desenvolvimento urbano e meio ambiente, Papirus, 1996PHILLIPI, Jr.A; MALHEIROS, T.F. Indicadores de Sustentabilidade e Gestão Ambiental. Editora Manole, 2012.SANTOS, M. A Urbanização Brasileira. 3 ed. São Paulo: HUCITEC, 1993. 155pSANTOS, R.F., Planejamento ambiental: teoria e prática, Editora Oficina de textos, 2004SECCHI, L. Análise de Políticas Públicas. Diagnóstico de Problemas, Recomendações de Soluções., São Paulo, Cengage Learning, 2016SOUZA, M.L. Mudar a Cidade: Uma introdução crítica ao planejamento e à gestão urbanos. Rio de Janeiro, Bertrand Brasil, 2003.VILLAÇA, F. Uma contribuição para a história do planejamento urbano no Brasil. In: DEAK, C; SCHIFFER, S.R (org) O processo de urbanização no Brasil. São Paulo, EDUSP, 1999.Bibliografia complementar:ALLEN, A., YOU, N., Sustainable urbanization – bridging the green and brown agendas, DPU, University College London, 2002ACSELRAD, H., Conflitos ambientais no Brasil, Fundação Henrich Boll, 2004BARDET, G., O urbanismo, Papirus, 1990BUARQUE, S.C., LIMA, R.R.A.; Manual de estratégia de desenvolvimento para aglomerações urbanas, Brasília, IPEA, 2005MENEGAT, R; ALMEIDA, G. Desenvolvimento Sustentável e Gestão Ambiental nas Cidades. Porto Alegre, Editora UFRGS, 2004.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -496,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,34 +618,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -668,77 +662,66 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>41</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOB1224.xlsx
+++ b/assets/disciplinas/LOB1224.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Propiciar ao discente uma visão integrada do processo de planejamento com um enfoque ambiental aplicado no urbanismo; apresentar e discutir conceitos, projetos práticos e metodologias relacionadas às etapas e fases do planejamento ambiental e à gestão ambiental urbana; apresentar os instrumentos do planejamento, gestão e política ambiental urbana</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Provide an integrated comprehension about planning process from an environmental approach applied for urban planning; introduce and discuss concepts, practical projects and methodologies related to stages and phases of environmental planning and urban environmental management; introducing instruments of planning, management and urban environmental policy.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>9146830 - Danúbia Caporusso Bargos</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Provide an integrated comprehension about planning process from an environmental approach applied for urban planning; introduce and discuss concepts, practical projects and methodologies related to stages and phases of environmental planning and urban environmental management; introducing instruments of planning, management and urban environmental policy.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Elementos de teoria e história do planejamento urbano. Teoria e prática do planejamento ambiental; Planejamento ambiental como indutor de desenvolvimento sustentável; Aplicações da teoria do planejamento a problemas ambientais e urbanos; Legislação e política ambiental urbana.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Introdução ao planejamento e gestão ambiental. Origens da teoria e prática do planejamento. Natureza do planejamento e suas relações com a geografia, política, economia, sociedade, cultura e meio ambiente. Análises, estudos e proposições relativas às diversas formas de crescimento e expansão urbanas; Elementos para estruturação ambiental da cidade; Etapas, estruturas e instrumentos do planejamento ambiental; Indicadores ambientais e planejamento; Participação pública no planejamento ambiental; Política Nacional do Meio Ambiente (Lei n°6938/1981); Sistema Nacional de Unidades de Conservação (Lei n°9985/2000); Estatuto da Cidade (Lei n°10.257/2001); Zoneamento Ambiental; EIA e EIV como instrumentos inovadores; Novos conceitos e princípios de planos diretores urbano-ambientais;</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aulas teóricas e práticas, visitas técnicas e exercícios dirigidos. Avaliação baseada em provas, exercícios e trabalhos práticos e relatórios.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas teóricas e práticas, visitas técnicas e exercícios dirigidos. Avaliação baseada em provas, exercícios e trabalhos práticos e relatórios.</t>
+    <t>Média ponderada das notas atribuídas às provas, exercícios e trabalhos práticos e relatórios.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média ponderada das notas atribuídas às provas, exercícios e trabalhos práticos e relatórios.</t>
+    <t>Provas e/ou exercícios dirigidos.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Provas e/ou exercícios dirigidos.</t>
+    <t>Bibliografia básica:AGRA FILHO, S,S. Planejamento e Gestão Ambiental no Brasil. Os Instrumentos da Política Nacional do Meio Ambiente, Rio de Janeiro, Elsevier, 2014FRANCO, M.A.R., Planejamento ambiental para a cidade sustentável, Ed. Annablume, 2000DEAK, C., SHIFFER, S.T.R., O processo de urbanização no Brasil, EDUSP, 1999IBGE, Instituto Brasileiro de Geografia e Estatística. Indicadores de Desenvolvimento Sustentável. Rio de Janeiro, IBGE, 2012.MOTA, S., Urbanização e meio ambiente, ABES Associação Brasileira de Engenharia Sanitária, 1999MENEZES, C.L., Desenvolvimento urbano e meio ambiente, Papirus, 1996PHILLIPI, Jr.A; MALHEIROS, T.F. Indicadores de Sustentabilidade e Gestão Ambiental. Editora Manole, 2012.SANTOS, M. A Urbanização Brasileira. 3 ed. São Paulo: HUCITEC, 1993. 155pSANTOS, R.F., Planejamento ambiental: teoria e prática, Editora Oficina de textos, 2004SECCHI, L. Análise de Políticas Públicas. Diagnóstico de Problemas, Recomendações de Soluções., São Paulo, Cengage Learning, 2016SOUZA, M.L. Mudar a Cidade: Uma introdução crítica ao planejamento e à gestão urbanos. Rio de Janeiro, Bertrand Brasil, 2003.VILLAÇA, F. Uma contribuição para a história do planejamento urbano no Brasil. In: DEAK, C; SCHIFFER, S.R (org) O processo de urbanização no Brasil. São Paulo, EDUSP, 1999.Bibliografia complementar:ALLEN, A., YOU, N., Sustainable urbanization – bridging the green and brown agendas, DPU, University College London, 2002ACSELRAD, H., Conflitos ambientais no Brasil, Fundação Henrich Boll, 2004BARDET, G., O urbanismo, Papirus, 1990BUARQUE, S.C., LIMA, R.R.A.; Manual de estratégia de desenvolvimento para aglomerações urbanas, Brasília, IPEA, 2005MENEGAT, R; ALMEIDA, G. Desenvolvimento Sustentável e Gestão Ambiental nas Cidades. Porto Alegre, Editora UFRGS, 2004.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,37 +627,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -662,66 +668,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
